--- a/adm/afleveringsStatistik.xlsx
+++ b/adm/afleveringsStatistik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Afleveringsstatistik</t>
   </si>
@@ -34,6 +34,60 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>2i</t>
+  </si>
+  <si>
+    <t>3i</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>Diff i procent</t>
+  </si>
+  <si>
+    <t>5i</t>
+  </si>
+  <si>
+    <t>Afleverede og ikke udmeldte</t>
+  </si>
+  <si>
+    <t>Afleveret max 1</t>
+  </si>
+  <si>
+    <t>Afleveret ingen</t>
+  </si>
+  <si>
+    <t>Diff fraregnet aldrig afleveret i procent</t>
+  </si>
+  <si>
+    <t>6g</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>8i</t>
+  </si>
+  <si>
+    <t>9g</t>
+  </si>
+  <si>
+    <t>10i</t>
+  </si>
+  <si>
+    <t>11g</t>
+  </si>
+  <si>
+    <t>12i</t>
+  </si>
+  <si>
+    <t>Endeligt antal studerende</t>
   </si>
 </sst>
 </file>
@@ -65,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -90,17 +150,160 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -133,6 +336,50 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$3:$M$3</c:f>
@@ -148,6 +395,33 @@
                 <c:pt idx="2">
                   <c:v>231.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>223.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -156,6 +430,50 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$4:$M$4</c:f>
@@ -163,13 +481,213 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>211.0</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.928251121076233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.896860986547085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874439461883408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.905829596412556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.860986547085202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.887892376681614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.865470852017937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.990430622009569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.956937799043062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.933014354066986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.966507177033493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91866028708134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947368421052631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.923444976076555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -184,11 +702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133976488"/>
-        <c:axId val="-2134274328"/>
+        <c:axId val="2110212856"/>
+        <c:axId val="2110215976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133976488"/>
+        <c:axId val="2110212856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -197,7 +715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134274328"/>
+        <c:crossAx val="2110215976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -205,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134274328"/>
+        <c:axId val="2110215976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -216,7 +734,368 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133976488"/>
+        <c:crossAx val="2110212856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.916317991631799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.876595744680851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83982683982684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873913043478261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.829694323144105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89237668161435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.865470852017937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.928251121076233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.896860986547085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874439461883408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.905829596412556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.860986547085202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.887892376681614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.865470852017937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1g</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2i</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3i</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4g</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5i</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6g</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7i</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9g</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10i</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11g</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12i</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.990430622009569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.956937799043062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.933014354066986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.966507177033493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91866028708134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.947368421052631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.923444976076555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2108572472"/>
+        <c:axId val="2110245224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2108572472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2110245224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2110245224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108572472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -238,15 +1117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -260,6 +1139,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -590,13 +1501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -607,41 +1521,41 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -651,12 +1565,39 @@
       <c r="B3">
         <v>239</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>(B3+D3)/2</f>
         <v>235</v>
       </c>
       <c r="D3">
         <v>231</v>
+      </c>
+      <c r="E3">
+        <v>230</v>
+      </c>
+      <c r="F3">
+        <v>229</v>
+      </c>
+      <c r="G3">
+        <v>223</v>
+      </c>
+      <c r="H3">
+        <v>223</v>
+      </c>
+      <c r="I3">
+        <v>223</v>
+      </c>
+      <c r="J3">
+        <v>223</v>
+      </c>
+      <c r="K3">
+        <v>223</v>
+      </c>
+      <c r="L3">
+        <v>223</v>
+      </c>
+      <c r="M3">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -664,16 +1605,32 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>231-20</f>
-        <v>211</v>
+        <f>B3-B5</f>
+        <v>219</v>
       </c>
       <c r="C4">
-        <f>231-29</f>
-        <v>202</v>
+        <f>C3-C5</f>
+        <v>206</v>
       </c>
       <c r="D4">
-        <f>231-37</f>
+        <f>D3-D5</f>
         <v>194</v>
+      </c>
+      <c r="E4">
+        <f>E3-E5</f>
+        <v>201</v>
+      </c>
+      <c r="F4">
+        <f>F3-F5</f>
+        <v>190</v>
+      </c>
+      <c r="G4">
+        <f>223-24</f>
+        <v>199</v>
+      </c>
+      <c r="H4">
+        <f>H3-30</f>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -681,16 +1638,249 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>B3-B4</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <f>C3-C4</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <f>D3-D4</f>
         <v>37</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <f>G3-G4</f>
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f>H3-H4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B4/B3</f>
+        <v>0.91631799163179917</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:M6" si="0">C4/C3</f>
+        <v>0.87659574468085111</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83982683982683981</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87391304347826082</v>
+      </c>
+      <c r="F6" s="1">
+        <f>F4/F3</f>
+        <v>0.82969432314410485</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8923766816143498</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86547085201793716</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <f>M3</f>
+        <v>223</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>195</v>
+      </c>
+      <c r="E12">
+        <v>202</v>
+      </c>
+      <c r="F12">
+        <v>192</v>
+      </c>
+      <c r="G12">
+        <v>198</v>
+      </c>
+      <c r="H12">
+        <f>H4</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B12/$B8</f>
+        <v>0.9282511210762332</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:M13" si="1">C12/$B8</f>
+        <v>0.89686098654708524</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87443946188340804</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.905829596412556</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86098654708520184</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88789237668161436</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86547085201793716</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B12/($B8-$B9)</f>
+        <v>0.99043062200956933</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:M14" si="2">C12/($B8-$B9)</f>
+        <v>0.9569377990430622</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93301435406698563</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96650717703349287</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91866028708133973</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92344497607655507</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/adm/afleveringsStatistik.xlsx
+++ b/adm/afleveringsStatistik.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Afleveringsstatistik</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Afleveret ingen</t>
   </si>
   <si>
-    <t>Diff fraregnet aldrig afleveret i procent</t>
-  </si>
-  <si>
     <t>6g</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>Endeligt antal studerende</t>
+  </si>
+  <si>
+    <t>Afl. i procent</t>
+  </si>
+  <si>
+    <t>Afl. fraregnet aldrig afleveret i procent</t>
   </si>
 </sst>
 </file>
@@ -142,8 +145,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -266,6 +277,10 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -304,6 +319,10 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,19 +427,19 @@
                   <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>223.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>223.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>223.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>223.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.0</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,25 +579,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.928251121076233</c:v>
+                  <c:v>0.931818181818182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896860986547085</c:v>
+                  <c:v>0.913636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.874439461883408</c:v>
+                  <c:v>0.895454545454545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.905829596412556</c:v>
+                  <c:v>0.922727272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.860986547085202</c:v>
+                  <c:v>0.895454545454545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.887892376681614</c:v>
+                  <c:v>0.913636363636364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.865470852017937</c:v>
+                  <c:v>0.890909090909091</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -654,25 +673,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.990430622009569</c:v>
+                  <c:v>0.990338164251208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.956937799043062</c:v>
+                  <c:v>0.971014492753623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.933014354066986</c:v>
+                  <c:v>0.951690821256039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.966507177033493</c:v>
+                  <c:v>0.980676328502415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91866028708134</c:v>
+                  <c:v>0.951690821256039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.947368421052631</c:v>
+                  <c:v>0.971014492753623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.923444976076555</c:v>
+                  <c:v>0.946859903381642</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -702,11 +721,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110212856"/>
-        <c:axId val="2110215976"/>
+        <c:axId val="2116406904"/>
+        <c:axId val="2116410024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110212856"/>
+        <c:axId val="2116406904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110215976"/>
+        <c:crossAx val="2116410024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110215976"/>
+        <c:axId val="2116410024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110212856"/>
+        <c:crossAx val="2116406904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,25 +940,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.928251121076233</c:v>
+                  <c:v>0.931818181818182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.896860986547085</c:v>
+                  <c:v>0.913636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.874439461883408</c:v>
+                  <c:v>0.895454545454545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.905829596412556</c:v>
+                  <c:v>0.922727272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.860986547085202</c:v>
+                  <c:v>0.895454545454545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.887892376681614</c:v>
+                  <c:v>0.913636363636364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.865470852017937</c:v>
+                  <c:v>0.890909090909091</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1015,25 +1034,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.990430622009569</c:v>
+                  <c:v>0.990338164251208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.956937799043062</c:v>
+                  <c:v>0.971014492753623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.933014354066986</c:v>
+                  <c:v>0.951690821256039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.966507177033493</c:v>
+                  <c:v>0.980676328502415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91866028708134</c:v>
+                  <c:v>0.951690821256039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.947368421052631</c:v>
+                  <c:v>0.971014492753623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.923444976076555</c:v>
+                  <c:v>0.946859903381642</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1063,11 +1082,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108572472"/>
-        <c:axId val="2110245224"/>
+        <c:axId val="2116484536"/>
+        <c:axId val="2116487512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108572472"/>
+        <c:axId val="2116484536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110245224"/>
+        <c:crossAx val="2116487512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110245224"/>
+        <c:axId val="2116487512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108572472"/>
+        <c:crossAx val="2116484536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1523,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1537,25 +1556,25 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1585,19 +1604,23 @@
         <v>223</v>
       </c>
       <c r="I3">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J3">
-        <v>223</v>
+        <f>I3</f>
+        <v>220</v>
       </c>
       <c r="K3">
-        <v>223</v>
+        <f>J3</f>
+        <v>220</v>
       </c>
       <c r="L3">
-        <v>223</v>
+        <f>K3</f>
+        <v>220</v>
       </c>
       <c r="M3">
-        <v>223</v>
+        <f>L3</f>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1723,11 +1746,11 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <f>M3</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1739,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1747,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1755,59 +1778,65 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>207</v>
+        <f>220-15</f>
+        <v>205</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <f>220-19</f>
+        <v>201</v>
       </c>
       <c r="D12">
-        <v>195</v>
+        <f>220-23</f>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>202</v>
+        <f>220-17</f>
+        <v>203</v>
       </c>
       <c r="F12">
-        <v>192</v>
+        <f>220-23</f>
+        <v>197</v>
       </c>
       <c r="G12">
-        <v>198</v>
+        <f>220-19</f>
+        <v>201</v>
       </c>
       <c r="H12">
-        <f>H4</f>
-        <v>193</v>
+        <f>220-24</f>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <f>B12/$B8</f>
-        <v>0.9282511210762332</v>
+        <v>0.93181818181818177</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:M13" si="1">C12/$B8</f>
-        <v>0.89686098654708524</v>
+        <v>0.91363636363636369</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0.87443946188340804</v>
+        <v>0.8954545454545455</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.905829596412556</v>
+        <v>0.92272727272727273</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.86098654708520184</v>
+        <v>0.8954545454545455</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.88789237668161436</v>
+        <v>0.91363636363636369</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>0.86547085201793716</v>
+        <v>0.89090909090909087</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
@@ -1832,35 +1861,35 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <f>B12/($B8-$B9)</f>
-        <v>0.99043062200956933</v>
+        <v>0.99033816425120769</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:M14" si="2">C12/($B8-$B9)</f>
-        <v>0.9569377990430622</v>
+        <v>0.97101449275362317</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>0.93301435406698563</v>
+        <v>0.95169082125603865</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0.96650717703349287</v>
+        <v>0.98067632850241548</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>0.91866028708133973</v>
+        <v>0.95169082125603865</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0.94736842105263153</v>
+        <v>0.97101449275362317</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>0.92344497607655507</v>
+        <v>0.9468599033816425</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>

--- a/adm/afleveringsStatistik.xlsx
+++ b/adm/afleveringsStatistik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="34480" yWindow="1440" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -281,6 +293,12 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +341,12 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,19 +451,19 @@
                   <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>220.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,6 +544,15 @@
                 <c:pt idx="6">
                   <c:v>193.0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -579,25 +612,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.931818181818182</c:v>
+                  <c:v>0.966981132075472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913636363636364</c:v>
+                  <c:v>0.94811320754717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.895454545454545</c:v>
+                  <c:v>0.929245283018868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.922727272727273</c:v>
+                  <c:v>0.957547169811321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.895454545454545</c:v>
+                  <c:v>0.929245283018868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.913636363636364</c:v>
+                  <c:v>0.94811320754717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.890909090909091</c:v>
+                  <c:v>0.924528301886792</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -673,25 +706,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.990338164251208</c:v>
+                  <c:v>1.009852216748768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.971014492753623</c:v>
+                  <c:v>0.990147783251231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.951690821256039</c:v>
+                  <c:v>0.970443349753695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.980676328502415</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.951690821256039</c:v>
+                  <c:v>0.970443349753695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.971014492753623</c:v>
+                  <c:v>0.990147783251231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.946859903381642</c:v>
+                  <c:v>0.96551724137931</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -721,11 +754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116406904"/>
-        <c:axId val="2116410024"/>
+        <c:axId val="2074105144"/>
+        <c:axId val="2074102008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116406904"/>
+        <c:axId val="2074105144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116410024"/>
+        <c:crossAx val="2074102008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116410024"/>
+        <c:axId val="2074102008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116406904"/>
+        <c:crossAx val="2074105144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -867,13 +900,13 @@
                   <c:v>0.865470852017937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.849056603773585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.839622641509434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.80188679245283</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -940,25 +973,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.931818181818182</c:v>
+                  <c:v>0.966981132075472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913636363636364</c:v>
+                  <c:v>0.94811320754717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.895454545454545</c:v>
+                  <c:v>0.929245283018868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.922727272727273</c:v>
+                  <c:v>0.957547169811321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.895454545454545</c:v>
+                  <c:v>0.929245283018868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.913636363636364</c:v>
+                  <c:v>0.94811320754717</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.890909090909091</c:v>
+                  <c:v>0.924528301886792</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1034,25 +1067,25 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.990338164251208</c:v>
+                  <c:v>1.009852216748768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.971014492753623</c:v>
+                  <c:v>0.990147783251231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.951690821256039</c:v>
+                  <c:v>0.970443349753695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.980676328502415</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.951690821256039</c:v>
+                  <c:v>0.970443349753695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.971014492753623</c:v>
+                  <c:v>0.990147783251231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.946859903381642</c:v>
+                  <c:v>0.96551724137931</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -1082,11 +1115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116484536"/>
-        <c:axId val="2116487512"/>
+        <c:axId val="2073812344"/>
+        <c:axId val="2073815320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116484536"/>
+        <c:axId val="2073812344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116487512"/>
+        <c:crossAx val="2073815320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116487512"/>
+        <c:axId val="2073815320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116484536"/>
+        <c:crossAx val="2073812344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1523,7 +1556,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1604,23 +1637,23 @@
         <v>223</v>
       </c>
       <c r="I3">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J3">
         <f>I3</f>
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K3">
         <f>J3</f>
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L3">
         <f>K3</f>
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M3">
         <f>L3</f>
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1655,6 +1688,18 @@
         <f>H3-30</f>
         <v>193</v>
       </c>
+      <c r="I4">
+        <f>I3-32</f>
+        <v>180</v>
+      </c>
+      <c r="J4">
+        <f>J3-34</f>
+        <v>178</v>
+      </c>
+      <c r="K4">
+        <f>K3-42</f>
+        <v>170</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -1683,6 +1728,18 @@
         <f>H3-H4</f>
         <v>30</v>
       </c>
+      <c r="I5">
+        <f>I3-I4</f>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <f>J3-J4</f>
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <f>K3-K4</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -1718,15 +1775,15 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84905660377358494</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80188679245283023</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
@@ -1750,7 +1807,7 @@
       </c>
       <c r="B8" s="3">
         <f>M3</f>
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1762,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1770,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1812,31 +1869,31 @@
       </c>
       <c r="B13" s="1">
         <f>B12/$B8</f>
-        <v>0.93181818181818177</v>
+        <v>0.96698113207547165</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:M13" si="1">C12/$B8</f>
-        <v>0.91363636363636369</v>
+        <v>0.94811320754716977</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0.8954545454545455</v>
+        <v>0.92924528301886788</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.92272727272727273</v>
+        <v>0.95754716981132071</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>0.8954545454545455</v>
+        <v>0.92924528301886788</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.91363636363636369</v>
+        <v>0.94811320754716977</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>0.89090909090909087</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
@@ -1865,31 +1922,31 @@
       </c>
       <c r="B14" s="1">
         <f>B12/($B8-$B9)</f>
-        <v>0.99033816425120769</v>
+        <v>1.0098522167487685</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ref="C14:M14" si="2">C12/($B8-$B9)</f>
-        <v>0.97101449275362317</v>
+        <v>0.99014778325123154</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>0.95169082125603865</v>
+        <v>0.97044334975369462</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0.98067632850241548</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>0.95169082125603865</v>
+        <v>0.97044334975369462</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>0.97101449275362317</v>
+        <v>0.99014778325123154</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>0.9468599033816425</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>

--- a/adm/afleveringsStatistik.xlsx
+++ b/adm/afleveringsStatistik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="1440" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -250,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -299,6 +309,11 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -347,6 +362,11 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,7 +571,10 @@
                   <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.0</c:v>
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,16 +656,16 @@
                   <c:v>0.924528301886792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.849056603773585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.839622641509434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.830188679245283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.773584905660377</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -727,16 +750,16 @@
                   <c:v>0.96551724137931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.886699507389163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.876847290640394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.866995073891626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.807881773399015</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -754,11 +777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2074105144"/>
-        <c:axId val="2074102008"/>
+        <c:axId val="2126065016"/>
+        <c:axId val="2136975704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2074105144"/>
+        <c:axId val="2126065016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074102008"/>
+        <c:crossAx val="2136975704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074102008"/>
+        <c:axId val="2136975704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074105144"/>
+        <c:crossAx val="2126065016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -906,10 +929,10 @@
                   <c:v>0.839622641509434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80188679245283</c:v>
+                  <c:v>0.830188679245283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.773584905660377</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -994,16 +1017,16 @@
                   <c:v>0.924528301886792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.849056603773585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.839622641509434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.830188679245283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.773584905660377</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -1088,16 +1111,16 @@
                   <c:v>0.96551724137931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0.886699507389163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0.876847290640394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0.866995073891626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0.807881773399015</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.0</c:v>
@@ -1115,11 +1138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073812344"/>
-        <c:axId val="2073815320"/>
+        <c:axId val="2124246008"/>
+        <c:axId val="2124249032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073812344"/>
+        <c:axId val="2124246008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073815320"/>
+        <c:crossAx val="2124249032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073815320"/>
+        <c:axId val="2124249032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073812344"/>
+        <c:crossAx val="2124246008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,9 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1697,8 +1718,12 @@
         <v>178</v>
       </c>
       <c r="K4">
-        <f>K3-42</f>
-        <v>170</v>
+        <f>K3-36</f>
+        <v>176</v>
+      </c>
+      <c r="L4">
+        <f>K3-48</f>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1721,24 +1746,28 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <f>G3-G4</f>
+        <f t="shared" ref="G5:L5" si="0">G3-G4</f>
         <v>24</v>
       </c>
       <c r="H5">
-        <f>H3-H4</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="I5">
-        <f>I3-I4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="J5">
-        <f>J3-J4</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="K5">
-        <f>K3-K4</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1750,15 +1779,15 @@
         <v>0.91631799163179917</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:M6" si="0">C4/C3</f>
+        <f t="shared" ref="C6:M6" si="1">C4/C3</f>
         <v>0.87659574468085111</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83982683982683981</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87391304347826082</v>
       </c>
       <c r="F6" s="1">
@@ -1766,31 +1795,31 @@
         <v>0.82969432314410485</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8923766816143498</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86547085201793716</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84905660377358494</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.839622641509434</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80188679245283023</v>
+        <f t="shared" si="1"/>
+        <v>0.83018867924528306</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.77358490566037741</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1862,6 +1891,18 @@
         <f>220-24</f>
         <v>196</v>
       </c>
+      <c r="I12">
+        <v>180</v>
+      </c>
+      <c r="J12">
+        <v>178</v>
+      </c>
+      <c r="K12">
+        <v>176</v>
+      </c>
+      <c r="L12">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -1872,47 +1913,47 @@
         <v>0.96698113207547165</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:M13" si="1">C12/$B8</f>
+        <f t="shared" ref="C13:M13" si="2">C12/$B8</f>
         <v>0.94811320754716977</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92924528301886788</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95754716981132071</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92924528301886788</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94811320754716977</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92452830188679247</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.84905660377358494</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.839622641509434</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.83018867924528306</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.77358490566037741</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1925,47 +1966,47 @@
         <v>1.0098522167487685</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:M14" si="2">C12/($B8-$B9)</f>
+        <f t="shared" ref="C14:M14" si="3">C12/($B8-$B9)</f>
         <v>0.99014778325123154</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97044334975369462</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97044334975369462</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99014778325123154</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96551724137931039</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.88669950738916259</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.87684729064039413</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.86699507389162567</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.80788177339901479</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
